--- a/data/sdgs/SDG8.xlsx
+++ b/data/sdgs/SDG8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/sustainability/keywords/data/sdgs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borz\Documents\GitHub\keywords\data\sdgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65290E3D-D232-2B45-A43C-6AD8B1E54EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4CC66-B65E-4969-A6DF-13096D7EC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{97B7CF3C-AC36-BE44-AF27-BA0CA6878A16}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{97B7CF3C-AC36-BE44-AF27-BA0CA6878A16}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG8" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="285">
   <si>
     <t>keyword_en</t>
   </si>
@@ -669,18 +669,6 @@
   </si>
   <si>
     <t>Occupazione</t>
-  </si>
-  <si>
-    <t>or Training</t>
-  </si>
-  <si>
-    <t>oder Ausbildung</t>
-  </si>
-  <si>
-    <t>ou formation</t>
-  </si>
-  <si>
-    <t>o formazione</t>
   </si>
   <si>
     <t>carbon offset</t>
@@ -943,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -996,8 +984,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE2FB648-3C98-5044-AA54-F488BB102A7E}" name="_SDG8" displayName="_SDG8" ref="A1:L70" totalsRowShown="0">
-  <autoFilter ref="A1:L70" xr:uid="{FE2FB648-3C98-5044-AA54-F488BB102A7E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE2FB648-3C98-5044-AA54-F488BB102A7E}" name="_SDG8" displayName="_SDG8" ref="A1:L69" totalsRowShown="0">
+  <autoFilter ref="A1:L69" xr:uid="{FE2FB648-3C98-5044-AA54-F488BB102A7E}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DC1E9E80-70F7-C749-BB28-09326393B453}" name="keyword_en" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{AE085AE0-0A6B-2642-9F65-E713B91C636F}" name="required_context_en" dataDxfId="10"/>
@@ -1017,7 +1005,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1313,29 +1301,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE10B0D-37C0-7F49-A0E6-6F12A8912AE3}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1563,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1601,7 +1589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1677,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1753,7 +1741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1791,7 +1779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1829,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1867,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1905,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1943,7 +1931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1981,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -2019,7 +2007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2057,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2133,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2171,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2209,7 +2197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2247,7 +2235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -2285,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -2323,7 +2311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
@@ -2361,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -2399,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -2437,7 +2425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
@@ -2475,7 +2463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -2513,7 +2501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -2551,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
@@ -2589,7 +2577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -2627,7 +2615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -2665,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -2741,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -2779,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -2817,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -2855,7 +2843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -2893,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -2931,7 +2919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
@@ -2969,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -3007,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -3045,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -3083,7 +3071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3121,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3159,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -3197,7 +3185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -3235,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
@@ -3273,7 +3261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -3311,7 +3299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>211</v>
       </c>
@@ -3349,7 +3337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
@@ -3369,55 +3357,55 @@
         <v>13</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="K55" s="1" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -3463,7 +3451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>225</v>
       </c>
@@ -3501,7 +3489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -3539,83 +3527,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>245</v>
       </c>
@@ -3653,7 +3641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>249</v>
       </c>
@@ -3691,7 +3679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>253</v>
       </c>
@@ -3729,7 +3717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>257</v>
       </c>
@@ -3767,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>261</v>
       </c>
@@ -3805,7 +3793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>265</v>
       </c>
@@ -3843,7 +3831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>269</v>
       </c>
@@ -3881,7 +3869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>273</v>
       </c>
@@ -3919,7 +3907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>277</v>
       </c>
@@ -3927,78 +3915,41 @@
         <v>13</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
